--- a/crawler/1_進出口總值(美元).xlsx
+++ b/crawler/1_進出口總值(美元).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D447"/>
+  <dimension ref="A1:E447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>國家</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>usd_amount</t>
         </is>
       </c>
@@ -466,6 +471,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -486,6 +496,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -506,6 +521,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -526,6 +546,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -546,6 +571,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -566,6 +596,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -586,6 +621,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -606,6 +646,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -626,6 +671,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -646,6 +696,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
@@ -666,6 +721,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
@@ -686,6 +746,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -706,6 +771,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -726,6 +796,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -746,6 +821,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -766,6 +846,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -786,6 +871,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -806,6 +896,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -826,6 +921,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -846,6 +946,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -866,6 +971,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -886,6 +996,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
@@ -906,6 +1021,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -926,6 +1046,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -946,6 +1071,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -966,6 +1096,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -986,6 +1121,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -1006,6 +1146,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -1026,6 +1171,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
@@ -1046,6 +1196,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
@@ -1066,6 +1221,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
@@ -1086,6 +1246,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
@@ -1106,6 +1271,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -1126,6 +1296,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -1146,6 +1321,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -1166,6 +1346,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
@@ -1186,6 +1371,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -1206,6 +1396,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
@@ -1226,6 +1421,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
@@ -1246,6 +1446,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -1266,6 +1471,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -1286,6 +1496,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
@@ -1306,6 +1521,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
@@ -1326,6 +1546,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
@@ -1346,6 +1571,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
@@ -1366,6 +1596,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
@@ -1386,6 +1621,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
@@ -1406,6 +1646,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -1426,6 +1671,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -1446,6 +1696,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -1466,6 +1721,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -1486,6 +1746,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1506,6 +1771,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -1526,6 +1796,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -1546,6 +1821,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
@@ -1566,6 +1846,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
@@ -1586,6 +1871,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
@@ -1606,6 +1896,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -1626,6 +1921,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
@@ -1646,6 +1946,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
@@ -1666,6 +1971,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
@@ -1686,6 +1996,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -1706,6 +2021,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
@@ -1726,6 +2046,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
@@ -1746,6 +2071,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -1766,6 +2096,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
@@ -1786,6 +2121,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -1806,6 +2146,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -1826,6 +2171,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
@@ -1846,6 +2196,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -1866,6 +2221,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -1886,6 +2246,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
@@ -1906,6 +2271,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -1926,6 +2296,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
@@ -1946,6 +2321,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
@@ -1966,6 +2346,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
@@ -1986,6 +2371,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
@@ -2006,6 +2396,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
@@ -2026,6 +2421,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
@@ -2046,6 +2446,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>172</t>
         </is>
       </c>
@@ -2066,6 +2471,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
@@ -2086,6 +2496,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
@@ -2106,6 +2521,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -2126,6 +2546,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
@@ -2146,6 +2571,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -2166,6 +2596,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -2186,6 +2621,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -2206,6 +2646,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -2226,6 +2671,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -2246,6 +2696,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -2266,6 +2721,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -2286,6 +2746,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -2306,6 +2771,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -2326,6 +2796,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -2346,6 +2821,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
@@ -2366,6 +2846,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
@@ -2386,6 +2871,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -2406,6 +2896,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -2426,6 +2921,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -2446,6 +2946,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -2466,6 +2971,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -2486,6 +2996,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -2506,6 +3021,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
@@ -2526,6 +3046,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
@@ -2546,6 +3071,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -2566,6 +3096,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -2586,6 +3121,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -2606,6 +3146,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2626,6 +3171,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -2646,6 +3196,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2666,6 +3221,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -2686,6 +3246,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -2706,6 +3271,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2726,6 +3296,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -2746,6 +3321,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -2766,6 +3346,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2786,6 +3371,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2806,6 +3396,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
@@ -2826,6 +3421,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -2846,6 +3446,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -2866,6 +3471,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -2886,6 +3496,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -2906,6 +3521,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
@@ -2926,6 +3546,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2946,6 +3571,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2966,6 +3596,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
@@ -2986,6 +3621,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
@@ -3006,6 +3646,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -3026,6 +3671,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -3046,6 +3696,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -3066,6 +3721,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
@@ -3086,6 +3746,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3106,6 +3771,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -3126,6 +3796,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -3146,6 +3821,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -3166,6 +3846,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3186,6 +3871,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -3206,6 +3896,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -3226,6 +3921,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -3246,6 +3946,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3266,6 +3971,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3286,6 +3996,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -3306,6 +4021,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -3326,6 +4046,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>110</t>
         </is>
       </c>
@@ -3346,6 +4071,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -3366,6 +4096,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
@@ -3386,6 +4121,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -3406,6 +4146,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -3426,6 +4171,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -3446,6 +4196,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -3466,6 +4221,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
@@ -3486,6 +4246,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -3506,6 +4271,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
@@ -3526,6 +4296,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
@@ -3546,6 +4321,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
@@ -3566,6 +4346,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>265</t>
         </is>
       </c>
@@ -3586,6 +4371,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -3606,6 +4396,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3626,6 +4421,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
@@ -3646,6 +4446,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
@@ -3666,6 +4471,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
@@ -3686,6 +4496,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -3706,6 +4521,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -3726,6 +4546,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -3746,6 +4571,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -3766,6 +4596,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -3786,6 +4621,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
@@ -3806,6 +4646,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
@@ -3826,6 +4671,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
@@ -3846,6 +4696,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3866,6 +4721,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -3886,6 +4746,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -3906,6 +4771,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -3926,6 +4796,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -3946,6 +4821,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -3966,6 +4846,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -3986,6 +4871,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -4006,6 +4896,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -4026,6 +4921,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
@@ -4046,6 +4946,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
@@ -4066,6 +4971,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -4086,6 +4996,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
@@ -4106,6 +5021,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
@@ -4126,6 +5046,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
@@ -4146,6 +5071,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -4166,6 +5096,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -4186,6 +5121,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
@@ -4206,6 +5146,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -4226,6 +5171,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -4246,6 +5196,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -4266,6 +5221,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -4286,6 +5246,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -4306,6 +5271,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
@@ -4326,6 +5296,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -4346,6 +5321,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
@@ -4366,6 +5346,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
@@ -4386,6 +5371,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
@@ -4406,6 +5396,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4426,6 +5421,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -4446,6 +5446,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
@@ -4466,6 +5471,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -4486,6 +5496,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -4506,6 +5521,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
@@ -4526,6 +5546,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -4546,6 +5571,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -4566,6 +5596,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -4586,6 +5621,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
@@ -4606,6 +5646,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
@@ -4626,6 +5671,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
@@ -4646,6 +5696,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
@@ -4666,6 +5721,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
@@ -4686,6 +5746,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
@@ -4706,6 +5771,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
@@ -4726,6 +5796,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -4746,6 +5821,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
@@ -4766,6 +5846,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -4786,6 +5871,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -4806,6 +5896,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
@@ -4826,6 +5921,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -4846,6 +5946,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
@@ -4866,6 +5971,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4886,6 +5996,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4906,6 +6021,11 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -4926,6 +6046,11 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -4946,6 +6071,11 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
@@ -4966,6 +6096,11 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -4986,6 +6121,11 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -5006,6 +6146,11 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -5026,6 +6171,11 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -5046,6 +6196,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -5066,6 +6221,11 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
@@ -5086,6 +6246,11 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -5106,6 +6271,11 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -5126,6 +6296,11 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -5146,6 +6321,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -5166,6 +6346,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -5186,6 +6371,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
@@ -5206,6 +6396,11 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -5226,6 +6421,11 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
@@ -5246,6 +6446,11 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -5266,6 +6471,11 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
@@ -5286,6 +6496,11 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
@@ -5306,6 +6521,11 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
@@ -5326,6 +6546,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -5346,6 +6571,11 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
@@ -5366,6 +6596,11 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
@@ -5386,6 +6621,11 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -5406,6 +6646,11 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -5426,6 +6671,11 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -5446,6 +6696,11 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
@@ -5466,6 +6721,11 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
           <t>167</t>
         </is>
       </c>
@@ -5486,6 +6746,11 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
           <t>157</t>
         </is>
       </c>
@@ -5506,6 +6771,11 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
           <t>279</t>
         </is>
       </c>
@@ -5526,6 +6796,11 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
           <t>262</t>
         </is>
       </c>
@@ -5546,6 +6821,11 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
           <t>156</t>
         </is>
       </c>
@@ -5566,6 +6846,11 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
           <t>167</t>
         </is>
       </c>
@@ -5586,6 +6871,11 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
           <t>228</t>
         </is>
       </c>
@@ -5606,6 +6896,11 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
           <t>303</t>
         </is>
       </c>
@@ -5626,6 +6921,11 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
@@ -5646,6 +6946,11 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
@@ -5666,6 +6971,11 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
           <t>203</t>
         </is>
       </c>
@@ -5686,6 +6996,11 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
           <t>187</t>
         </is>
       </c>
@@ -5706,6 +7021,11 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
           <t>184</t>
         </is>
       </c>
@@ -5726,6 +7046,11 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
           <t>184</t>
         </is>
       </c>
@@ -5746,6 +7071,11 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
           <t>103</t>
         </is>
       </c>
@@ -5766,6 +7096,11 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
           <t>141</t>
         </is>
       </c>
@@ -5786,6 +7121,11 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
@@ -5806,6 +7146,11 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
@@ -5826,6 +7171,11 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
           <t>106</t>
         </is>
       </c>
@@ -5846,6 +7196,11 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
           <t>195</t>
         </is>
       </c>
@@ -5866,6 +7221,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
@@ -5886,6 +7246,11 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
           <t>143</t>
         </is>
       </c>
@@ -5906,6 +7271,11 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
           <t>134</t>
         </is>
       </c>
@@ -5926,6 +7296,11 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
           <t>117</t>
         </is>
       </c>
@@ -5946,6 +7321,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
           <t>195</t>
         </is>
       </c>
@@ -5966,6 +7346,11 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
           <t>152</t>
         </is>
       </c>
@@ -5986,6 +7371,11 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
           <t>186</t>
         </is>
       </c>
@@ -6006,6 +7396,11 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
           <t>169</t>
         </is>
       </c>
@@ -6026,6 +7421,11 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
           <t>187</t>
         </is>
       </c>
@@ -6046,6 +7446,11 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
           <t>327</t>
         </is>
       </c>
@@ -6066,6 +7471,11 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
           <t>243</t>
         </is>
       </c>
@@ -6086,6 +7496,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
           <t>345</t>
         </is>
       </c>
@@ -6106,6 +7521,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
           <t>283</t>
         </is>
       </c>
@@ -6126,6 +7546,11 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
           <t>213</t>
         </is>
       </c>
@@ -6146,6 +7571,11 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
           <t>363</t>
         </is>
       </c>
@@ -6166,6 +7596,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
           <t>168</t>
         </is>
       </c>
@@ -6186,6 +7621,11 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
           <t>205</t>
         </is>
       </c>
@@ -6206,6 +7646,11 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
           <t>205</t>
         </is>
       </c>
@@ -6226,6 +7671,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
           <t>357</t>
         </is>
       </c>
@@ -6246,6 +7696,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
           <t>363</t>
         </is>
       </c>
@@ -6266,6 +7721,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
           <t>308</t>
         </is>
       </c>
@@ -6286,6 +7746,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
           <t>283</t>
         </is>
       </c>
@@ -6306,6 +7771,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
           <t>352</t>
         </is>
       </c>
@@ -6326,6 +7796,11 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
           <t>359</t>
         </is>
       </c>
@@ -6346,6 +7821,11 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
           <t>409</t>
         </is>
       </c>
@@ -6366,6 +7846,11 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
           <t>626</t>
         </is>
       </c>
@@ -6386,6 +7871,11 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
           <t>404</t>
         </is>
       </c>
@@ -6406,6 +7896,11 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
           <t>280</t>
         </is>
       </c>
@@ -6426,6 +7921,11 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
           <t>323</t>
         </is>
       </c>
@@ -6446,6 +7946,11 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
           <t>330</t>
         </is>
       </c>
@@ -6466,6 +7971,11 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
           <t>522</t>
         </is>
       </c>
@@ -6486,6 +7996,11 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
           <t>387</t>
         </is>
       </c>
@@ -6506,6 +8021,11 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
           <t>370</t>
         </is>
       </c>
@@ -6526,6 +8046,11 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
           <t>451</t>
         </is>
       </c>
@@ -6546,6 +8071,11 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
           <t>462</t>
         </is>
       </c>
@@ -6566,6 +8096,11 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
           <t>478</t>
         </is>
       </c>
@@ -6586,6 +8121,11 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
           <t>541</t>
         </is>
       </c>
@@ -6606,6 +8146,11 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
           <t>440</t>
         </is>
       </c>
@@ -6626,6 +8171,11 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
           <t>540</t>
         </is>
       </c>
@@ -6646,6 +8196,11 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
           <t>502</t>
         </is>
       </c>
@@ -6666,6 +8221,11 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
           <t>548</t>
         </is>
       </c>
@@ -6686,6 +8246,11 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
           <t>502</t>
         </is>
       </c>
@@ -6706,6 +8271,11 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
           <t>466</t>
         </is>
       </c>
@@ -6726,6 +8296,11 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
           <t>503</t>
         </is>
       </c>
@@ -6746,6 +8321,11 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
           <t>392</t>
         </is>
       </c>
@@ -6766,6 +8346,11 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
           <t>831</t>
         </is>
       </c>
@@ -6786,6 +8371,11 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
           <t>692</t>
         </is>
       </c>
@@ -6806,6 +8396,11 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
           <t>707</t>
         </is>
       </c>
@@ -6826,6 +8421,11 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
           <t>489</t>
         </is>
       </c>
@@ -6846,6 +8446,11 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
           <t>402</t>
         </is>
       </c>
@@ -6866,6 +8471,11 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
           <t>473</t>
         </is>
       </c>
@@ -6886,6 +8496,11 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
           <t>570</t>
         </is>
       </c>
@@ -6906,6 +8521,11 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
           <t>750</t>
         </is>
       </c>
@@ -6926,6 +8546,11 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
           <t>541</t>
         </is>
       </c>
@@ -6946,6 +8571,11 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
           <t>800</t>
         </is>
       </c>
@@ -6966,6 +8596,11 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
           <t>708</t>
         </is>
       </c>
@@ -6986,6 +8621,11 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
           <t>503</t>
         </is>
       </c>
@@ -7006,6 +8646,11 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
           <t>770</t>
         </is>
       </c>
@@ -7026,6 +8671,11 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
           <t>558</t>
         </is>
       </c>
@@ -7046,6 +8696,11 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
           <t>477</t>
         </is>
       </c>
@@ -7066,6 +8721,11 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
           <t>538</t>
         </is>
       </c>
@@ -7086,6 +8746,11 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
           <t>581</t>
         </is>
       </c>
@@ -7106,6 +8771,11 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
           <t>522</t>
         </is>
       </c>
@@ -7126,6 +8796,11 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
           <t>492</t>
         </is>
       </c>
@@ -7146,6 +8821,11 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
           <t>607</t>
         </is>
       </c>
@@ -7166,6 +8846,11 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
           <t>512</t>
         </is>
       </c>
@@ -7186,6 +8871,11 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
           <t>689</t>
         </is>
       </c>
@@ -7206,6 +8896,11 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
           <t>728</t>
         </is>
       </c>
@@ -7226,6 +8921,11 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
           <t>520</t>
         </is>
       </c>
@@ -7246,6 +8946,11 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
           <t>750</t>
         </is>
       </c>
@@ -7266,6 +8971,11 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
           <t>709</t>
         </is>
       </c>
@@ -7286,6 +8996,11 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
           <t>896</t>
         </is>
       </c>
@@ -7306,6 +9021,11 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
           <t>608</t>
         </is>
       </c>
@@ -7326,6 +9046,11 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
           <t>629</t>
         </is>
       </c>
@@ -7346,6 +9071,11 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
           <t>446</t>
         </is>
       </c>
@@ -7366,6 +9096,11 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
           <t>490</t>
         </is>
       </c>
@@ -7386,6 +9121,11 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
           <t>572</t>
         </is>
       </c>
@@ -7406,6 +9146,11 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
           <t>592</t>
         </is>
       </c>
@@ -7426,6 +9171,11 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
           <t>523</t>
         </is>
       </c>
@@ -7446,6 +9196,11 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
           <t>514</t>
         </is>
       </c>
@@ -7466,6 +9221,11 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
           <t>418</t>
         </is>
       </c>
@@ -7486,6 +9246,11 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
           <t>409</t>
         </is>
       </c>
@@ -7506,6 +9271,11 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
           <t>420</t>
         </is>
       </c>
@@ -7526,6 +9296,11 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
           <t>672</t>
         </is>
       </c>
@@ -7546,6 +9321,11 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
           <t>664</t>
         </is>
       </c>
@@ -7566,6 +9346,11 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
           <t>684</t>
         </is>
       </c>
@@ -7586,6 +9371,11 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
           <t>593</t>
         </is>
       </c>
@@ -7606,6 +9396,11 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
           <t>541</t>
         </is>
       </c>
@@ -7626,6 +9421,11 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
           <t>644</t>
         </is>
       </c>
@@ -7646,6 +9446,11 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
           <t>410</t>
         </is>
       </c>
@@ -7666,6 +9471,11 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
           <t>675</t>
         </is>
       </c>
@@ -7686,6 +9496,11 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
           <t>490</t>
         </is>
       </c>
@@ -7706,6 +9521,11 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
           <t>784</t>
         </is>
       </c>
@@ -7726,6 +9546,11 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
           <t>816</t>
         </is>
       </c>
@@ -7746,6 +9571,11 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
           <t>424</t>
         </is>
       </c>
@@ -7766,6 +9596,11 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
           <t>649</t>
         </is>
       </c>
@@ -7786,6 +9621,11 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
           <t>703</t>
         </is>
       </c>
@@ -7806,6 +9646,11 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
           <t>843</t>
         </is>
       </c>
@@ -7826,6 +9671,11 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
           <t>901</t>
         </is>
       </c>
@@ -7846,6 +9696,11 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
           <t>1,016</t>
         </is>
       </c>
@@ -7866,6 +9721,11 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
           <t>792</t>
         </is>
       </c>
@@ -7886,6 +9746,11 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
           <t>954</t>
         </is>
       </c>
@@ -7906,6 +9771,11 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
           <t>1,097</t>
         </is>
       </c>
@@ -7926,6 +9796,11 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
           <t>589</t>
         </is>
       </c>
@@ -7946,6 +9821,11 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
           <t>776</t>
         </is>
       </c>
@@ -7966,6 +9846,11 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
           <t>1,083</t>
         </is>
       </c>
@@ -7986,6 +9871,11 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
           <t>738</t>
         </is>
       </c>
@@ -8006,6 +9896,11 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
           <t>768</t>
         </is>
       </c>
@@ -8026,6 +9921,11 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
           <t>1,046</t>
         </is>
       </c>
@@ -8046,6 +9946,11 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
           <t>809</t>
         </is>
       </c>
@@ -8066,6 +9971,11 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
           <t>737</t>
         </is>
       </c>
@@ -8086,6 +9996,11 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
           <t>613</t>
         </is>
       </c>
@@ -8106,6 +10021,11 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
           <t>626</t>
         </is>
       </c>
@@ -8126,6 +10046,11 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
           <t>767</t>
         </is>
       </c>
@@ -8146,6 +10071,11 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
           <t>700</t>
         </is>
       </c>
@@ -8166,6 +10096,11 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
           <t>614</t>
         </is>
       </c>
@@ -8186,6 +10121,11 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
           <t>456</t>
         </is>
       </c>
@@ -8206,6 +10146,11 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
           <t>739</t>
         </is>
       </c>
@@ -8226,6 +10171,11 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
           <t>615</t>
         </is>
       </c>
@@ -8246,6 +10196,11 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
           <t>661</t>
         </is>
       </c>
@@ -8266,6 +10221,11 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
           <t>684</t>
         </is>
       </c>
@@ -8286,6 +10246,11 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
           <t>642</t>
         </is>
       </c>
@@ -8306,6 +10271,11 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
           <t>456</t>
         </is>
       </c>
@@ -8326,6 +10296,11 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
           <t>386</t>
         </is>
       </c>
@@ -8346,6 +10321,11 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
           <t>480</t>
         </is>
       </c>
@@ -8366,6 +10346,11 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
           <t>398</t>
         </is>
       </c>
@@ -8386,6 +10371,11 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
           <t>475</t>
         </is>
       </c>
@@ -8406,6 +10396,11 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
           <t>459</t>
         </is>
       </c>
@@ -8426,6 +10421,11 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
           <t>515</t>
         </is>
       </c>
@@ -8446,6 +10446,11 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
           <t>898</t>
         </is>
       </c>
@@ -8466,6 +10471,11 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
           <t>758</t>
         </is>
       </c>
@@ -8486,6 +10496,11 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
           <t>722</t>
         </is>
       </c>
@@ -8506,6 +10521,11 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
           <t>633</t>
         </is>
       </c>
@@ -8526,6 +10546,11 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
           <t>672</t>
         </is>
       </c>
@@ -8546,6 +10571,11 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
           <t>816</t>
         </is>
       </c>
@@ -8566,6 +10596,11 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
           <t>843</t>
         </is>
       </c>
@@ -8586,6 +10621,11 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
           <t>777</t>
         </is>
       </c>
@@ -8606,6 +10646,11 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
           <t>867</t>
         </is>
       </c>
@@ -8626,6 +10671,11 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
           <t>839</t>
         </is>
       </c>
@@ -8646,6 +10696,11 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
           <t>621</t>
         </is>
       </c>
@@ -8666,6 +10721,11 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
           <t>517</t>
         </is>
       </c>
@@ -8686,6 +10746,11 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
           <t>1,124</t>
         </is>
       </c>
@@ -8706,6 +10771,11 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
           <t>879</t>
         </is>
       </c>
@@ -8726,6 +10796,11 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
           <t>1,145</t>
         </is>
       </c>
@@ -8746,6 +10821,11 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
           <t>950</t>
         </is>
       </c>
@@ -8766,6 +10846,11 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
           <t>987</t>
         </is>
       </c>
@@ -8786,6 +10871,11 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
           <t>1,036</t>
         </is>
       </c>
@@ -8806,6 +10896,11 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
           <t>858</t>
         </is>
       </c>
@@ -8826,6 +10921,11 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
           <t>948</t>
         </is>
       </c>
@@ -8846,6 +10946,11 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
           <t>732</t>
         </is>
       </c>
@@ -8866,6 +10971,11 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
           <t>971</t>
         </is>
       </c>
@@ -8886,6 +10996,11 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
           <t>618</t>
         </is>
       </c>
@@ -8906,6 +11021,11 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
           <t>427</t>
         </is>
       </c>
@@ -8926,6 +11046,11 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
           <t>962</t>
         </is>
       </c>
@@ -8946,6 +11071,11 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
           <t>958</t>
         </is>
       </c>
@@ -8966,6 +11096,11 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
           <t>1,108</t>
         </is>
       </c>
@@ -8986,6 +11121,11 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
           <t>1,225</t>
         </is>
       </c>
@@ -9006,6 +11146,11 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
           <t>873</t>
         </is>
       </c>
@@ -9026,6 +11171,11 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
           <t>1,149</t>
         </is>
       </c>
@@ -9046,6 +11196,11 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
           <t>881</t>
         </is>
       </c>
@@ -9066,6 +11221,11 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
           <t>902</t>
         </is>
       </c>
@@ -9086,6 +11246,11 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
           <t>940</t>
         </is>
       </c>
@@ -9106,6 +11271,11 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
           <t>864</t>
         </is>
       </c>
@@ -9126,6 +11296,11 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
           <t>817</t>
         </is>
       </c>
@@ -9146,6 +11321,11 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
           <t>924</t>
         </is>
       </c>
@@ -9166,6 +11346,11 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
           <t>837</t>
         </is>
       </c>
@@ -9186,6 +11371,11 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
           <t>711</t>
         </is>
       </c>
@@ -9206,6 +11396,11 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
           <t>874</t>
         </is>
       </c>
@@ -9226,6 +11421,11 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
           <t>641</t>
         </is>
       </c>
@@ -9246,6 +11446,11 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
           <t>862</t>
         </is>
       </c>
@@ -9266,6 +11471,11 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
           <t>725</t>
         </is>
       </c>
@@ -9286,6 +11496,11 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
           <t>553</t>
         </is>
       </c>
@@ -9306,6 +11521,11 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
           <t>552</t>
         </is>
       </c>
@@ -9326,6 +11546,11 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
           <t>882</t>
         </is>
       </c>
@@ -9346,6 +11571,11 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
           <t>868</t>
         </is>
       </c>
@@ -9365,6 +11595,11 @@
         </is>
       </c>
       <c r="D447" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
         <is>
           <t>789</t>
         </is>
